--- a/init-data/hzero-platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
+++ b/init-data/hzero-platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\hzero-resource\init-data\hzero-platform\hzero_platform\iam_tenant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35231429-F0CB-41D2-8A7C-09D6BB20D48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="租户维护菜单" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
-    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
-    <sheet name="菜单标签数据" sheetId="5" r:id="rId5"/>
+    <sheet name="租户维护菜单" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1999,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2485,7 +2484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="77">
     <font>
       <sz val="12"/>
@@ -2605,358 +2605,299 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3149,65 +3090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3223,10 +3105,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3566,36 +3507,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3604,21 +3545,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3729,11 +3670,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3771,19 +3712,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3807,39 +3748,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3849,13 +3790,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3867,10 +3808,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -3891,7 +3832,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -3916,7 +3857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -3969,7 +3910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -3988,9 +3929,8 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <f>租户维护菜单!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4023,7 +3963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -4042,9 +3982,8 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <f>租户维护菜单!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>99</v>
@@ -4080,7 +4019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -4096,9 +4035,8 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
         <v>106</v>
@@ -4131,7 +4069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>109</v>
       </c>
@@ -4147,9 +4085,8 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L12" t="s">
         <v>106</v>
@@ -4182,7 +4119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>113</v>
       </c>
@@ -4198,9 +4135,8 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L13" t="s">
         <v>106</v>
@@ -4230,7 +4166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>117</v>
       </c>
@@ -4246,9 +4182,8 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L14" t="s">
         <v>106</v>
@@ -4281,7 +4216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>122</v>
       </c>
@@ -4297,9 +4232,8 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L15" t="s">
         <v>106</v>
@@ -4329,7 +4263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>126</v>
       </c>
@@ -4345,9 +4279,8 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L16" t="s">
         <v>106</v>
@@ -4378,45 +4311,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4426,143 +4358,135 @@
       <c r="C7" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" t="s" s="66">
         <v>131</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" t="s" s="68">
         <v>132</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" t="s" s="69">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="E8" t="s">
         <v>134</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="E9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="E10" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="E11" t="s">
         <v>140</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="E12" t="s">
         <v>142</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="E13" t="s">
         <v>144</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="G14" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4572,10 +4496,10 @@
       <c r="C7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" t="s" s="70">
         <v>149</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -4584,7 +4508,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" t="s" s="72">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -4593,16 +4517,16 @@
       <c r="J7" t="s">
         <v>151</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>152</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" t="s" s="74">
         <v>153</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" t="s" s="75">
         <v>154</v>
       </c>
       <c r="O7" t="s">
@@ -4629,7 +4553,7 @@
       <c r="V7" t="s">
         <v>161</v>
       </c>
-      <c r="W7" s="71" t="s">
+      <c r="W7" t="s" s="76">
         <v>162</v>
       </c>
       <c r="X7" t="s">
@@ -4639,7 +4563,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>165</v>
       </c>
@@ -4698,7 +4622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4708,16 +4632,16 @@
       <c r="C10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" t="s" s="77">
         <v>172</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" t="s" s="79">
         <v>173</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" t="s" s="80">
         <v>174</v>
       </c>
       <c r="H10" t="s">
@@ -4726,21 +4650,19 @@
       <c r="I10" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" t="s" s="81">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>178</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G11" t="str">
+      </c>
+      <c r="G11">
         <f>租户维护菜单!$E$11</f>
-        <v>iam_menu-11</v>
       </c>
       <c r="H11" t="s">
         <v>179</v>
@@ -4752,17 +4674,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>182</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G12" t="str">
+      </c>
+      <c r="G12">
         <f>租户维护菜单!$E$12</f>
-        <v>iam_menu-12</v>
       </c>
       <c r="H12" t="s">
         <v>179</v>
@@ -4774,17 +4694,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G13" t="str">
+      </c>
+      <c r="G13">
         <f>租户维护菜单!$E$13</f>
-        <v>iam_menu-13</v>
       </c>
       <c r="H13" t="s">
         <v>179</v>
@@ -4796,17 +4714,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>184</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G14" t="str">
+      </c>
+      <c r="G14">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="H14" t="s">
         <v>179</v>
@@ -4818,17 +4734,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>185</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G15" t="str">
+      </c>
+      <c r="G15">
         <f>租户维护菜单!$E$15</f>
-        <v>iam_menu-15</v>
       </c>
       <c r="H15" t="s">
         <v>179</v>
@@ -4840,17 +4754,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>186</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G16" t="str">
+      </c>
+      <c r="G16">
         <f>租户维护菜单!$E$16</f>
-        <v>iam_menu-16</v>
       </c>
       <c r="H16" t="s">
         <v>179</v>
@@ -4863,47 +4775,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="48" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="52" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4913,16 +4822,16 @@
       <c r="C7" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" t="s" s="82">
         <v>188</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" t="s" s="83">
         <v>54</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" t="s" s="84">
         <v>189</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" t="s" s="85">
         <v>177</v>
       </c>
       <c r="H7" t="s">
@@ -4950,7 +4859,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8">
       <c r="E8" t="s">
         <v>197</v>
       </c>
@@ -4982,7 +4891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4992,199 +4901,179 @@
       <c r="C10" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" t="s" s="86">
         <v>203</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" t="s" s="87">
         <v>204</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" t="s" s="88">
         <v>205</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" t="s" s="89">
         <v>206</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" t="s" s="90">
         <v>207</v>
       </c>
       <c r="I10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11">
       <c r="E11" t="s">
         <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>199</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <f>租户维护菜单!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H11" t="str">
+      </c>
+      <c r="H11">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12">
       <c r="E12" t="s">
         <v>209</v>
       </c>
       <c r="F12" t="s">
         <v>199</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <f>租户维护菜单!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H12" t="str">
+      </c>
+      <c r="H12">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13">
       <c r="E13" t="s">
         <v>209</v>
       </c>
       <c r="F13" t="s">
         <v>199</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
         <f>租户维护菜单!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H13" t="str">
+      </c>
+      <c r="H13">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14">
       <c r="E14" t="s">
         <v>209</v>
       </c>
       <c r="F14" t="s">
         <v>199</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14">
         <f>租户维护菜单!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H14" t="str">
+      </c>
+      <c r="H14">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15">
       <c r="E15" t="s">
         <v>209</v>
       </c>
       <c r="F15" t="s">
         <v>199</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15">
         <f>租户维护菜单!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H15" t="str">
+      </c>
+      <c r="H15">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16">
       <c r="E16" t="s">
         <v>209</v>
       </c>
       <c r="F16" t="s">
         <v>199</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <f>租户维护菜单!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H16" t="str">
+      </c>
+      <c r="H16">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="5:9">
+    <row r="17">
       <c r="E17" t="s">
         <v>209</v>
       </c>
       <c r="F17" t="s">
         <v>199</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17">
         <f>租户维护菜单!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H17" t="str">
+      </c>
+      <c r="H17">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="5:9">
+    <row r="18">
       <c r="E18" t="s">
         <v>209</v>
       </c>
       <c r="F18" t="s">
         <v>199</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18">
         <f>租户维护菜单!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H18" t="str">
+      </c>
+      <c r="H18">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19">
       <c r="E19" t="s">
         <v>209</v>
       </c>
       <c r="F19" t="s">
         <v>199</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <f>租户维护菜单!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H19" t="str">
+      </c>
+      <c r="H19">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>